--- a/data/long_bre/P23_6-Edad-long_bre.xlsx
+++ b/data/long_bre/P23_6-Edad-long_bre.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,6 +521,10 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,12 +540,16 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -551,12 +566,32 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -567,6 +602,10 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -576,27 +615,47 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>4,59</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>-7,04</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>5,51%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0,69%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>33,85%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-25,29%</t>
         </is>
       </c>
     </row>
@@ -609,22 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,99; 11,43</t>
+          <t>-9,63; 10,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,5; 8,9</t>
+          <t>-8,97; 8,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-49,71; 114,14</t>
+          <t>-9,7; 16,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-53,69; 136,27</t>
+          <t>-29,19; 10,78</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-44,52; 101,92</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-52,36; 109,04</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-46,49; 247,05</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-71,66; 75,38</t>
         </is>
       </c>
     </row>
@@ -632,27 +711,47 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-4,89</t>
+          <t>-3,94</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-6,19</t>
+          <t>-3,69</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-6,81%</t>
+          <t>-8,41</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-7,68%</t>
+          <t>2,6</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-5,4%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-4,71%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-11,74%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>4,86%</t>
         </is>
       </c>
     </row>
@@ -665,22 +764,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-18,59; 8,8</t>
+          <t>-16,22; 8,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-17,4; 4,47</t>
+          <t>-14,3; 9,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-24,1; 13,17</t>
+          <t>-24,38; 8,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-19,83; 6,02</t>
+          <t>-21,21; 22,84</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-21,27; 13,49</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-16,73; 12,1</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-30,83; 12,63</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-31,39; 56,58</t>
         </is>
       </c>
     </row>
@@ -688,27 +807,47 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,92</t>
+          <t>3,1</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,64</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>32,3%</t>
+          <t>3,82</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>77,85%</t>
+          <t>4,44</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>26,74%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>38,01%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>25,78%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>23,68%</t>
         </is>
       </c>
     </row>
@@ -721,54 +860,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 14,6</t>
+          <t>-6,46; 12,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 13,39</t>
+          <t>-5,94; 12,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-36,11; 211,84</t>
+          <t>-10,77; 17,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-31,15; 375,3</t>
+          <t>-13,93; 19,09</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-41,24; 187,98</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-43,44; 293,92</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-47,34; 249,31</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-52,65; 191,52</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,86</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>28,35%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -781,50 +956,94 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 13,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,23; 7,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-30,98; 143,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-54,31; 113,0</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>4,15</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>10,66</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,26%</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>15,0%</t>
+          <t>1,29</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>30,94%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-4,65%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>30,73%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>8,46%</t>
         </is>
       </c>
     </row>
@@ -837,22 +1056,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,81; 15,63</t>
+          <t>-5,96; 13,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 26,32</t>
+          <t>-11,96; 6,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-16,55; 26,36</t>
+          <t>-5,5; 11,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 44,71</t>
+          <t>-13,44; 13,98</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-31,69; 150,28</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-61,13; 95,39</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-44,86; 209,63</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-55,16; 177,59</t>
         </is>
       </c>
     </row>
@@ -860,27 +1099,47 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-3,68</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-11,07</t>
+          <t>11,93</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-22,32%</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-63,82%</t>
+          <t>-5,02</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2,14%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>17,04%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>3,92%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-7,79%</t>
         </is>
       </c>
     </row>
@@ -893,54 +1152,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-18,21; 4,81</t>
+          <t>-12,04; 17,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-26,42; -2,44</t>
+          <t>0,03; 29,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-67,25; 48,65</t>
+          <t>-13,44; 19,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-90,58; -25,84</t>
+          <t>-25,27; 16,02</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-16,03; 30,54</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0,01; 53,01</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-17,03; 36,75</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-33,05; 33,04</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>-5,62</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-3,34</t>
+          <t>-11,37</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>-5,48</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-18,73%</t>
+          <t>3,73</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>-31,3%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>-63,36%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-24,71%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>18,28%</t>
         </is>
       </c>
     </row>
@@ -953,22 +1248,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-9,25; 8,96</t>
+          <t>-23,73; 4,66</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-12,35; 4,09</t>
+          <t>-31,11; -2,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-36,46; 63,82</t>
+          <t>-24,38; 7,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-50,49; 30,14</t>
+          <t>-16,29; 20,4</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-75,29; 55,04</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-89,68; -19,02</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-70,3; 55,27</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-51,39; 235,34</t>
         </is>
       </c>
     </row>
@@ -976,27 +1291,47 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1009,50 +1344,94 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-7,78; 15,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 11,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-11,32; 28,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-10,3; 20,24</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-3,77</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>-2,99</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-20,03%</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-1,31%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-16,78%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-2,18%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>2,67%</t>
         </is>
       </c>
     </row>
@@ -1065,54 +1444,90 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-17,41; 5,76</t>
+          <t>-9,73; 8,08</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,37; 7,32</t>
+          <t>-12,39; 4,17</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-59,67; 49,7</t>
+          <t>-12,41; 7,84</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-32,58; 55,7</t>
+          <t>-9,46; 11,97</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-37,15; 53,34</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-50,2; 33,33</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-50,79; 74,31</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-41,19; 92,06</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-6,56</t>
+          <t>4,31</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>7,51</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-28,83%</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>49,15%</t>
+          <t>5,8</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>7,18%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>2,2%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>3,22%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>10,92%</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1540,42 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-16,27; 1,57</t>
+          <t>-6,17; 17,49</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 14,91</t>
+          <t>-6,71; 11,54</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-55,5; 9,01</t>
+          <t>-8,02; 13,71</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-10,17; 133,38</t>
+          <t>-7,35; 20,66</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-9,4; 34,69</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-9,4; 19,39</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-11,05; 23,14</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-11,92; 46,81</t>
         </is>
       </c>
     </row>
@@ -1148,27 +1583,47 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-5,23</t>
+          <t>-4,04</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-11,95</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-8,47%</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-17,58%</t>
+          <t>-6,3</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>-20,56%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>9,53%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-10,01%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-22,39%</t>
         </is>
       </c>
     </row>
@@ -1181,22 +1636,42 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-14,99; 6,03</t>
+          <t>-19,6; 5,25</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-20,99; -3,48</t>
+          <t>-6,49; 8,27</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-21,61; 10,96</t>
+          <t>-9,08; 5,08</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-28,88; -5,45</t>
+          <t>-19,68; 5,65</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>-59,97; 46,0</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>-30,67; 71,15</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-43,23; 36,27</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-54,5; 32,0</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1679,47 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>11,79</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>4,45</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>76,28%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>26,58%</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1237,54 +1732,94 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>3,7; 19,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 11,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>18,67; 161,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-14,65; 82,27</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-2,35</t>
+          <t>-6,68</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-3,17</t>
+          <t>6,84</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-9,83%</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-17,88%</t>
+          <t>3,74</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>-29,06%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>43,33%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>6,05%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>14,31%</t>
         </is>
       </c>
     </row>
@@ -1297,22 +1832,42 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-12,26; 7,47</t>
+          <t>-15,92; 1,02</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-11,26; 3,84</t>
+          <t>-2,64; 13,94</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-43,89; 36,97</t>
+          <t>-7,12; 9,8</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-50,04; 29,78</t>
+          <t>-7,48; 16,01</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-55,54; 5,82</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-15,44; 120,88</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-31,09; 69,89</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-24,01; 81,2</t>
         </is>
       </c>
     </row>
@@ -1320,27 +1875,47 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>2,08</t>
+          <t>-4,27</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-2,58</t>
+          <t>-11,27</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-3,88%</t>
+          <t>18,65</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>-6,95%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>-16,71%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>3,03%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>45,56%</t>
         </is>
       </c>
     </row>
@@ -1353,22 +1928,42 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-9,36; 14,09</t>
+          <t>-14,19; 5,9</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-11,71; 6,66</t>
+          <t>-20,06; -1,57</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-14,54; 26,24</t>
+          <t>-8,73; 13,79</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-16,25; 10,54</t>
+          <t>4,56; 32,06</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-21,55; 10,65</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-28,02; -2,99</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-13,87; 29,52</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>9,81; 103,12</t>
         </is>
       </c>
     </row>
@@ -1376,27 +1971,47 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>10,95</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>5,75</t>
+          <t>4,43</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>-2,83</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>36,61%</t>
+          <t>-22,38</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>70,26%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>26,36%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>-11,12%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>-67,89%</t>
         </is>
       </c>
     </row>
@@ -1409,54 +2024,90 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-10,37; 9,24</t>
+          <t>3,72; 18,84</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 13,55</t>
+          <t>-2,46; 10,24</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-46,18; 78,82</t>
+          <t>-16,27; 7,56</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-11,07; 113,1</t>
+          <t>-37,19; -11,02</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>16,8; 158,0</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-12,21; 76,79</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-45,83; 43,37</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-84,28; -39,86</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>5,21</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>-3,2</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>23,79%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>-16,47%</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1469,50 +2120,94 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-11,8; 18,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-12,89; 6,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-39,58; 131,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-50,34; 45,76</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>-2,1</t>
+          <t>-2,67</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>-3,72</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-3,67%</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>-0,93%</t>
+          <t>-6,58</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>-11,09%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>-20,68%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>-1,43%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>-30,15%</t>
         </is>
       </c>
     </row>
@@ -1525,22 +2220,42 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-19,02; 12,87</t>
+          <t>-12,53; 7,04</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-12,74; 11,66</t>
+          <t>-11,95; 4,07</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-28,2; 26,78</t>
+          <t>-12,02; 8,74</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-18,7; 20,91</t>
+          <t>-17,34; 3,98</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>-41,82; 37,02</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>-52,33; 29,07</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>-48,36; 67,31</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>-62,36; 30,41</t>
         </is>
       </c>
     </row>
@@ -1548,27 +2263,47 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>-3,11</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>3,79</t>
+          <t>-2,32</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>-14,81%</t>
+          <t>-2,94</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>21,07%</t>
+          <t>-5,47</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>4,81%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>-3,5%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>-4,93%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>-9,62%</t>
         </is>
       </c>
     </row>
@@ -1581,54 +2316,90 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-14,04; 7,45</t>
+          <t>-8,04; 14,64</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 14,55</t>
+          <t>-11,63; 8,54</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-49,94; 55,9</t>
+          <t>-15,68; 10,83</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-23,57; 116,42</t>
+          <t>-18,01; 10,11</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>-12,48; 28,37</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>-16,16; 13,92</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>-24,16; 21,54</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>-28,21; 21,75</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>6,04</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>12,05</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>-0,9%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>38,62%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>14,36%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>56,43%</t>
         </is>
       </c>
     </row>
@@ -1641,22 +2412,42 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 4,58</t>
+          <t>-12,43; 8,59</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 3,72</t>
+          <t>-1,68; 14,18</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>-18,88; 26,32</t>
+          <t>-8,02; 13,56</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>-17,58; 28,81</t>
+          <t>-3,18; 22,52</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>-50,09; 69,63</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>-9,67; 120,51</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>-28,67; 79,92</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>-10,59; 159,94</t>
         </is>
       </c>
     </row>
@@ -1664,27 +2455,47 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>-1,61</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>-1,94</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>-2,53%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>-2,81%</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1697,50 +2508,94 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 3,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 2,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>-9,99; 6,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>-8,54; 3,93</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>5,47</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>-2,97</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>-3,93</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>11,48%</t>
+          <t>6,63</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="inlineStr">
+        <is>
+          <t>26,32%</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>-15,05%</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>-20,82%</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>46,42%</t>
         </is>
       </c>
     </row>
@@ -1753,37 +2608,740 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 4,88</t>
+          <t>-9,85; 18,02</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 5,06</t>
+          <t>-12,55; 6,17</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>-17,25; 33,47</t>
+          <t>-17,56; 8,04</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>-14,73; 37,12</t>
+          <t>-8,71; 23,43</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="inlineStr">
+        <is>
+          <t>-38,26; 126,94</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>-50,48; 43,6</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>-62,87; 82,52</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>-49,34; 297,21</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>-1,25</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>-1,14</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>1,41</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>-8,88</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>-2,2%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>-1,83%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>2,54%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>-12,87%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>-16,37; 14,17</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>-12,99; 12,42</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>-14,4; 17,05</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>-28,53; 8,61</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>-25,19; 29,23</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>-18,09; 23,28</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>-23,25; 36,01</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>-37,41; 13,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>-4,23</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>4,12</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>2,52</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>2,25</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>-18,65%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>23,08%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>9,87%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>13,48%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>-15,52; 6,16</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>-5,88; 15,02</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>-12,47; 15,58</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>-12,84; 18,1</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>-52,26; 40,51</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>-26,28; 124,84</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>-36,03; 95,71</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>-61,47; 197,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>-0,14</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>0,83</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>-0,1</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>1,2%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>-0,88%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>5,33%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>-0,49%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>-4,06; 4,25</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>-4,02; 2,88</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>-3,58; 5,5</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>-5,43; 5,98</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>-18,17; 24,86</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>-21,75; 20,83</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>-19,53; 40,9</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>-23,5; 34,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>-0,69</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>-1,51</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>-0,66</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>2,13</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>-1,1%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>-2,2%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>-1,04%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>3,84%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>-6,49; 4,41</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>-5,66; 3,16</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>-6,59; 5,46</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>-6,01; 9,26</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>-9,59; 7,53</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>-7,95; 4,92</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>-9,87; 9,24</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>-9,7; 17,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>0,46</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>1,64</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>-0,17</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>-2,03</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>2,64%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>10,46%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>-0,81%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>-8,56%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>-3,81; 4,41</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>-2,41; 5,19</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>-5,62; 5,05</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>-7,98; 4,51</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>-19,1; 29,2</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>-13,45; 39,29</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>-22,69; 28,44</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>-29,39; 22,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_bre/P23_6-Edad-long_bre.xlsx
+++ b/data/long_bre/P23_6-Edad-long_bre.xlsx
@@ -624,7 +624,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -720,7 +720,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -816,7 +816,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -916,7 +916,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1012,7 +1012,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1108,7 +1108,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1304,7 +1304,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1400,7 +1400,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1500,7 +1500,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1596,7 +1596,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1692,7 +1692,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
@@ -1792,7 +1792,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C40" s="5" t="n">
@@ -1888,7 +1888,7 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C43" s="5" t="n">
@@ -1984,7 +1984,7 @@
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C46" s="5" t="n">
@@ -2084,7 +2084,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C49" s="5" t="n">
@@ -2180,7 +2180,7 @@
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C52" s="5" t="n">
@@ -2276,7 +2276,7 @@
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C55" s="5" t="n">
@@ -2376,7 +2376,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C58" s="5" t="n">
@@ -2472,7 +2472,7 @@
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C61" s="5" t="n">
@@ -2568,7 +2568,7 @@
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C64" s="5" t="n">
